--- a/APPSHEET/EXCEL/caja_resumen_franco.xlsx
+++ b/APPSHEET/EXCEL/caja_resumen_franco.xlsx
@@ -227,7 +227,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-16</t>
+            <t xml:space="preserve">2023-02-23</t>
           </r>
         </is>
       </c>
@@ -236,7 +236,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">TODOS</t>
+            <t xml:space="preserve">PROGRAMADOR ADMIN</t>
           </r>
         </is>
       </c>
@@ -245,7 +245,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1790000</t>
+            <t xml:space="preserve">400000</t>
           </r>
         </is>
       </c>
@@ -254,7 +254,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1790000</t>
+            <t xml:space="preserve">400000</t>
           </r>
         </is>
       </c>
@@ -281,7 +281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1790000</t>
+            <t xml:space="preserve">400000</t>
           </r>
         </is>
       </c>
@@ -290,7 +290,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1790000</t>
+            <t xml:space="preserve">400000</t>
           </r>
         </is>
       </c>
@@ -299,7 +299,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -308,7 +308,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">15</t>
+            <t xml:space="preserve">3</t>
           </r>
         </is>
       </c>
@@ -319,7 +319,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-15</t>
+            <t xml:space="preserve">2023-02-21</t>
           </r>
         </is>
       </c>
@@ -337,7 +337,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1850000</t>
+            <t xml:space="preserve">93000</t>
           </r>
         </is>
       </c>
@@ -346,7 +346,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1140000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -355,7 +355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">110000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -364,7 +364,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">50000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -373,7 +373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1090000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -382,7 +382,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1740000</t>
+            <t xml:space="preserve">93000</t>
           </r>
         </is>
       </c>
@@ -391,7 +391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">26</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
@@ -400,7 +400,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">43</t>
+            <t xml:space="preserve">4</t>
           </r>
         </is>
       </c>
@@ -411,7 +411,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-14</t>
+            <t xml:space="preserve">2023-02-20</t>
           </r>
         </is>
       </c>
@@ -429,7 +429,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3298000</t>
+            <t xml:space="preserve">3219000</t>
           </r>
         </is>
       </c>
@@ -438,7 +438,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">260000</t>
           </r>
         </is>
       </c>
@@ -447,7 +447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">190000</t>
+            <t xml:space="preserve">105000</t>
           </r>
         </is>
       </c>
@@ -465,7 +465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">260000</t>
           </r>
         </is>
       </c>
@@ -474,7 +474,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3108000</t>
+            <t xml:space="preserve">3114000</t>
           </r>
         </is>
       </c>
@@ -492,7 +492,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60</t>
+            <t xml:space="preserve">63</t>
           </r>
         </is>
       </c>
@@ -503,7 +503,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-13</t>
+            <t xml:space="preserve">2023-02-19</t>
           </r>
         </is>
       </c>
@@ -521,7 +521,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2715000</t>
+            <t xml:space="preserve">5143000</t>
           </r>
         </is>
       </c>
@@ -530,7 +530,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">120000</t>
           </r>
         </is>
       </c>
@@ -539,7 +539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">165000</t>
+            <t xml:space="preserve">255000</t>
           </r>
         </is>
       </c>
@@ -557,7 +557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">120000</t>
           </r>
         </is>
       </c>
@@ -566,7 +566,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2550000</t>
+            <t xml:space="preserve">4888000</t>
           </r>
         </is>
       </c>
@@ -575,7 +575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">1</t>
           </r>
         </is>
       </c>
@@ -584,7 +584,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">51</t>
+            <t xml:space="preserve">81</t>
           </r>
         </is>
       </c>
@@ -595,7 +595,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-12</t>
+            <t xml:space="preserve">2023-02-18</t>
           </r>
         </is>
       </c>
@@ -613,7 +613,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5232000</t>
+            <t xml:space="preserve">3807000</t>
           </r>
         </is>
       </c>
@@ -622,7 +622,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">130000</t>
           </r>
         </is>
       </c>
@@ -631,7 +631,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">155000</t>
           </r>
         </is>
       </c>
@@ -649,7 +649,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">0</t>
+            <t xml:space="preserve">130000</t>
           </r>
         </is>
       </c>
@@ -658,7 +658,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5032000</t>
+            <t xml:space="preserve">3652000</t>
           </r>
         </is>
       </c>
@@ -676,7 +676,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">90</t>
+            <t xml:space="preserve">71</t>
           </r>
         </is>
       </c>
@@ -687,7 +687,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-11</t>
+            <t xml:space="preserve">2023-02-17</t>
           </r>
         </is>
       </c>
@@ -705,7 +705,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3422000</t>
+            <t xml:space="preserve">3684000</t>
           </r>
         </is>
       </c>
@@ -723,7 +723,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">340000</t>
+            <t xml:space="preserve">75000</t>
           </r>
         </is>
       </c>
@@ -750,7 +750,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3082000</t>
+            <t xml:space="preserve">3609000</t>
           </r>
         </is>
       </c>
@@ -768,7 +768,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">71</t>
+            <t xml:space="preserve">70</t>
           </r>
         </is>
       </c>
@@ -779,7 +779,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-10</t>
+            <t xml:space="preserve">2023-02-16</t>
           </r>
         </is>
       </c>
@@ -797,7 +797,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2685000</t>
+            <t xml:space="preserve">2511000</t>
           </r>
         </is>
       </c>
@@ -815,7 +815,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -842,7 +842,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2600000</t>
+            <t xml:space="preserve">2431000</t>
           </r>
         </is>
       </c>
@@ -860,7 +860,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">51</t>
+            <t xml:space="preserve">53</t>
           </r>
         </is>
       </c>
@@ -871,7 +871,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-09</t>
+            <t xml:space="preserve">2023-02-15</t>
           </r>
         </is>
       </c>
@@ -889,7 +889,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2810000</t>
+            <t xml:space="preserve">4148000</t>
           </r>
         </is>
       </c>
@@ -907,7 +907,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100000</t>
+            <t xml:space="preserve">160000</t>
           </r>
         </is>
       </c>
@@ -934,7 +934,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2710000</t>
+            <t xml:space="preserve">3988000</t>
           </r>
         </is>
       </c>
@@ -952,7 +952,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">53</t>
+            <t xml:space="preserve">83</t>
           </r>
         </is>
       </c>
@@ -963,7 +963,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-08</t>
+            <t xml:space="preserve">2023-02-14</t>
           </r>
         </is>
       </c>
@@ -981,7 +981,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2758000</t>
+            <t xml:space="preserve">4655000</t>
           </r>
         </is>
       </c>
@@ -999,7 +999,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">445000</t>
+            <t xml:space="preserve">80000</t>
           </r>
         </is>
       </c>
@@ -1026,7 +1026,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2313000</t>
+            <t xml:space="preserve">4575000</t>
           </r>
         </is>
       </c>
@@ -1044,7 +1044,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">58</t>
+            <t xml:space="preserve">88</t>
           </r>
         </is>
       </c>
@@ -1055,7 +1055,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-07</t>
+            <t xml:space="preserve">2023-02-13</t>
           </r>
         </is>
       </c>
@@ -1073,7 +1073,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2012000</t>
+            <t xml:space="preserve">3217000</t>
           </r>
         </is>
       </c>
@@ -1091,7 +1091,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">235000</t>
+            <t xml:space="preserve">28000</t>
           </r>
         </is>
       </c>
@@ -1118,7 +1118,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1777000</t>
+            <t xml:space="preserve">3189000</t>
           </r>
         </is>
       </c>
@@ -1136,7 +1136,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">42</t>
+            <t xml:space="preserve">67</t>
           </r>
         </is>
       </c>
@@ -1147,7 +1147,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-06</t>
+            <t xml:space="preserve">2023-02-12</t>
           </r>
         </is>
       </c>
@@ -1165,7 +1165,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2999000</t>
+            <t xml:space="preserve">5037000</t>
           </r>
         </is>
       </c>
@@ -1183,7 +1183,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">95000</t>
+            <t xml:space="preserve">180000</t>
           </r>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2904000</t>
+            <t xml:space="preserve">4857000</t>
           </r>
         </is>
       </c>
@@ -1228,7 +1228,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60</t>
+            <t xml:space="preserve">100</t>
           </r>
         </is>
       </c>
@@ -1239,7 +1239,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-05</t>
+            <t xml:space="preserve">2023-02-11</t>
           </r>
         </is>
       </c>
@@ -1257,7 +1257,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3688000</t>
+            <t xml:space="preserve">4221000</t>
           </r>
         </is>
       </c>
@@ -1275,7 +1275,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">195000</t>
+            <t xml:space="preserve">25000</t>
           </r>
         </is>
       </c>
@@ -1302,7 +1302,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3493000</t>
+            <t xml:space="preserve">4196000</t>
           </r>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">63</t>
+            <t xml:space="preserve">83</t>
           </r>
         </is>
       </c>
@@ -1331,7 +1331,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-04</t>
+            <t xml:space="preserve">2023-02-10</t>
           </r>
         </is>
       </c>
@@ -1349,7 +1349,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4317000</t>
+            <t xml:space="preserve">4026000</t>
           </r>
         </is>
       </c>
@@ -1367,7 +1367,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">245000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1394,7 +1394,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4072000</t>
+            <t xml:space="preserve">4026000</t>
           </r>
         </is>
       </c>
@@ -1412,7 +1412,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85</t>
+            <t xml:space="preserve">74</t>
           </r>
         </is>
       </c>
@@ -1423,7 +1423,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-03</t>
+            <t xml:space="preserve">2023-02-09</t>
           </r>
         </is>
       </c>
@@ -1441,7 +1441,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2980000</t>
+            <t xml:space="preserve">2818000</t>
           </r>
         </is>
       </c>
@@ -1459,7 +1459,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1486,7 +1486,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2925000</t>
+            <t xml:space="preserve">2818000</t>
           </r>
         </is>
       </c>
@@ -1504,7 +1504,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">58</t>
+            <t xml:space="preserve">57</t>
           </r>
         </is>
       </c>
@@ -1515,7 +1515,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-02</t>
+            <t xml:space="preserve">2023-02-08</t>
           </r>
         </is>
       </c>
@@ -1533,7 +1533,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3575000</t>
+            <t xml:space="preserve">3445000</t>
           </r>
         </is>
       </c>
@@ -1551,7 +1551,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -1578,7 +1578,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3490000</t>
+            <t xml:space="preserve">3445000</t>
           </r>
         </is>
       </c>
@@ -1596,7 +1596,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">65</t>
+            <t xml:space="preserve">67</t>
           </r>
         </is>
       </c>
@@ -1607,7 +1607,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-02-01</t>
+            <t xml:space="preserve">2023-02-07</t>
           </r>
         </is>
       </c>
@@ -1625,7 +1625,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2751000</t>
+            <t xml:space="preserve">2314000</t>
           </r>
         </is>
       </c>
@@ -1643,7 +1643,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">525000</t>
+            <t xml:space="preserve">37000</t>
           </r>
         </is>
       </c>
@@ -1670,7 +1670,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2226000</t>
+            <t xml:space="preserve">2277000</t>
           </r>
         </is>
       </c>
@@ -1688,7 +1688,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">62</t>
+            <t xml:space="preserve">47</t>
           </r>
         </is>
       </c>
@@ -1699,7 +1699,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-31</t>
+            <t xml:space="preserve">2023-02-06</t>
           </r>
         </is>
       </c>
@@ -1717,7 +1717,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2377000</t>
+            <t xml:space="preserve">2823000</t>
           </r>
         </is>
       </c>
@@ -1735,7 +1735,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">170000</t>
+            <t xml:space="preserve">750000</t>
           </r>
         </is>
       </c>
@@ -1762,7 +1762,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2207000</t>
+            <t xml:space="preserve">2073000</t>
           </r>
         </is>
       </c>
@@ -1780,7 +1780,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">46</t>
+            <t xml:space="preserve">55</t>
           </r>
         </is>
       </c>
@@ -1791,7 +1791,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-30</t>
+            <t xml:space="preserve">2023-02-05</t>
           </r>
         </is>
       </c>
@@ -1809,7 +1809,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1841000</t>
+            <t xml:space="preserve">4775000</t>
           </r>
         </is>
       </c>
@@ -1827,7 +1827,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10000</t>
+            <t xml:space="preserve">180000</t>
           </r>
         </is>
       </c>
@@ -1854,7 +1854,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">1831000</t>
+            <t xml:space="preserve">4595000</t>
           </r>
         </is>
       </c>
@@ -1872,7 +1872,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">43</t>
+            <t xml:space="preserve">91</t>
           </r>
         </is>
       </c>
@@ -1883,7 +1883,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-29</t>
+            <t xml:space="preserve">2023-02-04</t>
           </r>
         </is>
       </c>
@@ -1901,7 +1901,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3100000</t>
+            <t xml:space="preserve">3757000</t>
           </r>
         </is>
       </c>
@@ -1919,7 +1919,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">190000</t>
+            <t xml:space="preserve">5000</t>
           </r>
         </is>
       </c>
@@ -1946,7 +1946,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2910000</t>
+            <t xml:space="preserve">3752000</t>
           </r>
         </is>
       </c>
@@ -1964,7 +1964,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">60</t>
+            <t xml:space="preserve">68</t>
           </r>
         </is>
       </c>
@@ -1975,7 +1975,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-28</t>
+            <t xml:space="preserve">2023-02-03</t>
           </r>
         </is>
       </c>
@@ -1993,7 +1993,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5001000</t>
+            <t xml:space="preserve">2554000</t>
           </r>
         </is>
       </c>
@@ -2011,7 +2011,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">416000</t>
+            <t xml:space="preserve">150000</t>
           </r>
         </is>
       </c>
@@ -2038,7 +2038,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4585000</t>
+            <t xml:space="preserve">2404000</t>
           </r>
         </is>
       </c>
@@ -2056,7 +2056,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">100</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -2067,7 +2067,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-27</t>
+            <t xml:space="preserve">2023-02-02</t>
           </r>
         </is>
       </c>
@@ -2085,7 +2085,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2921000</t>
+            <t xml:space="preserve">3889000</t>
           </r>
         </is>
       </c>
@@ -2103,7 +2103,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">13000</t>
           </r>
         </is>
       </c>
@@ -2130,7 +2130,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2896000</t>
+            <t xml:space="preserve">3876000</t>
           </r>
         </is>
       </c>
@@ -2148,7 +2148,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">59</t>
+            <t xml:space="preserve">70</t>
           </r>
         </is>
       </c>
@@ -2159,7 +2159,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-26</t>
+            <t xml:space="preserve">2023-02-01</t>
           </r>
         </is>
       </c>
@@ -2177,7 +2177,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2166000</t>
+            <t xml:space="preserve">3373000</t>
           </r>
         </is>
       </c>
@@ -2195,7 +2195,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">85000</t>
+            <t xml:space="preserve">305000</t>
           </r>
         </is>
       </c>
@@ -2222,7 +2222,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2081000</t>
+            <t xml:space="preserve">3068000</t>
           </r>
         </is>
       </c>
@@ -2240,7 +2240,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">47</t>
+            <t xml:space="preserve">71</t>
           </r>
         </is>
       </c>
@@ -2251,7 +2251,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-25</t>
+            <t xml:space="preserve">2023-01-31</t>
           </r>
         </is>
       </c>
@@ -2269,7 +2269,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2991000</t>
+            <t xml:space="preserve">3789000</t>
           </r>
         </is>
       </c>
@@ -2287,7 +2287,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">145000</t>
+            <t xml:space="preserve">20000</t>
           </r>
         </is>
       </c>
@@ -2314,7 +2314,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2846000</t>
+            <t xml:space="preserve">3769000</t>
           </r>
         </is>
       </c>
@@ -2332,7 +2332,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">54</t>
+            <t xml:space="preserve">68</t>
           </r>
         </is>
       </c>
@@ -2343,7 +2343,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-24</t>
+            <t xml:space="preserve">2023-01-30</t>
           </r>
         </is>
       </c>
@@ -2361,7 +2361,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2420000</t>
+            <t xml:space="preserve">3996000</t>
           </r>
         </is>
       </c>
@@ -2379,7 +2379,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">95000</t>
+            <t xml:space="preserve">135000</t>
           </r>
         </is>
       </c>
@@ -2406,7 +2406,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2325000</t>
+            <t xml:space="preserve">3861000</t>
           </r>
         </is>
       </c>
@@ -2424,7 +2424,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">48</t>
+            <t xml:space="preserve">71</t>
           </r>
         </is>
       </c>
@@ -2435,7 +2435,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-23</t>
+            <t xml:space="preserve">2023-01-29</t>
           </r>
         </is>
       </c>
@@ -2453,7 +2453,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2831000</t>
+            <t xml:space="preserve">5095000</t>
           </r>
         </is>
       </c>
@@ -2471,7 +2471,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">140000</t>
           </r>
         </is>
       </c>
@@ -2498,7 +2498,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2806000</t>
+            <t xml:space="preserve">4955000</t>
           </r>
         </is>
       </c>
@@ -2516,7 +2516,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">58</t>
+            <t xml:space="preserve">84</t>
           </r>
         </is>
       </c>
@@ -2527,7 +2527,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-22</t>
+            <t xml:space="preserve">2023-01-28</t>
           </r>
         </is>
       </c>
@@ -2545,7 +2545,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5254000</t>
+            <t xml:space="preserve">4775000</t>
           </r>
         </is>
       </c>
@@ -2563,7 +2563,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2590,7 +2590,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">5054000</t>
+            <t xml:space="preserve">4775000</t>
           </r>
         </is>
       </c>
@@ -2608,7 +2608,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">88</t>
+            <t xml:space="preserve">99</t>
           </r>
         </is>
       </c>
@@ -2619,7 +2619,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-21</t>
+            <t xml:space="preserve">2023-01-27</t>
           </r>
         </is>
       </c>
@@ -2637,7 +2637,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4276000</t>
+            <t xml:space="preserve">3966000</t>
           </r>
         </is>
       </c>
@@ -2655,7 +2655,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">270000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -2682,7 +2682,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4006000</t>
+            <t xml:space="preserve">3866000</t>
           </r>
         </is>
       </c>
@@ -2700,7 +2700,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">91</t>
+            <t xml:space="preserve">78</t>
           </r>
         </is>
       </c>
@@ -2711,7 +2711,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-20</t>
+            <t xml:space="preserve">2023-01-26</t>
           </r>
         </is>
       </c>
@@ -2729,7 +2729,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3636000</t>
+            <t xml:space="preserve">3473000</t>
           </r>
         </is>
       </c>
@@ -2747,7 +2747,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">375000</t>
           </r>
         </is>
       </c>
@@ -2774,7 +2774,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3436000</t>
+            <t xml:space="preserve">3098000</t>
           </r>
         </is>
       </c>
@@ -2792,7 +2792,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">66</t>
+            <t xml:space="preserve">73</t>
           </r>
         </is>
       </c>
@@ -2803,7 +2803,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-19</t>
+            <t xml:space="preserve">2023-01-25</t>
           </r>
         </is>
       </c>
@@ -2821,7 +2821,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2169000</t>
+            <t xml:space="preserve">3946000</t>
           </r>
         </is>
       </c>
@@ -2839,7 +2839,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">75000</t>
+            <t xml:space="preserve">68000</t>
           </r>
         </is>
       </c>
@@ -2866,7 +2866,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2094000</t>
+            <t xml:space="preserve">3878000</t>
           </r>
         </is>
       </c>
@@ -2884,7 +2884,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">48</t>
+            <t xml:space="preserve">78</t>
           </r>
         </is>
       </c>
@@ -2895,7 +2895,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-18</t>
+            <t xml:space="preserve">2023-01-24</t>
           </r>
         </is>
       </c>
@@ -2913,7 +2913,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2820000</t>
+            <t xml:space="preserve">3706000</t>
           </r>
         </is>
       </c>
@@ -2931,7 +2931,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">316000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -2958,7 +2958,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2504000</t>
+            <t xml:space="preserve">3706000</t>
           </r>
         </is>
       </c>
@@ -2976,7 +2976,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">61</t>
+            <t xml:space="preserve">63</t>
           </r>
         </is>
       </c>
@@ -2987,7 +2987,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-17</t>
+            <t xml:space="preserve">2023-01-23</t>
           </r>
         </is>
       </c>
@@ -3005,7 +3005,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2300000</t>
+            <t xml:space="preserve">3527000</t>
           </r>
         </is>
       </c>
@@ -3023,7 +3023,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">105000</t>
+            <t xml:space="preserve">27000</t>
           </r>
         </is>
       </c>
@@ -3050,7 +3050,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2195000</t>
+            <t xml:space="preserve">3500000</t>
           </r>
         </is>
       </c>
@@ -3068,7 +3068,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">44</t>
+            <t xml:space="preserve">76</t>
           </r>
         </is>
       </c>
@@ -3079,7 +3079,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-16</t>
+            <t xml:space="preserve">2023-01-22</t>
           </r>
         </is>
       </c>
@@ -3097,7 +3097,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2544000</t>
+            <t xml:space="preserve">6238000</t>
           </r>
         </is>
       </c>
@@ -3115,7 +3115,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">55000</t>
+            <t xml:space="preserve">90000</t>
           </r>
         </is>
       </c>
@@ -3142,7 +3142,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2489000</t>
+            <t xml:space="preserve">6148000</t>
           </r>
         </is>
       </c>
@@ -3160,7 +3160,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">48</t>
+            <t xml:space="preserve">107</t>
           </r>
         </is>
       </c>
@@ -3171,7 +3171,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-15</t>
+            <t xml:space="preserve">2023-01-21</t>
           </r>
         </is>
       </c>
@@ -3189,7 +3189,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4876000</t>
+            <t xml:space="preserve">5646000</t>
           </r>
         </is>
       </c>
@@ -3207,7 +3207,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">200000</t>
+            <t xml:space="preserve">100000</t>
           </r>
         </is>
       </c>
@@ -3234,7 +3234,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4676000</t>
+            <t xml:space="preserve">5546000</t>
           </r>
         </is>
       </c>
@@ -3252,7 +3252,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">88</t>
+            <t xml:space="preserve">106</t>
           </r>
         </is>
       </c>
@@ -3263,7 +3263,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-14</t>
+            <t xml:space="preserve">2023-01-20</t>
           </r>
         </is>
       </c>
@@ -3281,7 +3281,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4996000</t>
+            <t xml:space="preserve">3478000</t>
           </r>
         </is>
       </c>
@@ -3299,7 +3299,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">340000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3326,7 +3326,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">4656000</t>
+            <t xml:space="preserve">3478000</t>
           </r>
         </is>
       </c>
@@ -3344,7 +3344,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">96</t>
+            <t xml:space="preserve">76</t>
           </r>
         </is>
       </c>
@@ -3355,7 +3355,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-13</t>
+            <t xml:space="preserve">2023-01-19</t>
           </r>
         </is>
       </c>
@@ -3373,7 +3373,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3904000</t>
+            <t xml:space="preserve">4635000</t>
           </r>
         </is>
       </c>
@@ -3391,7 +3391,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">250000</t>
+            <t xml:space="preserve">85000</t>
           </r>
         </is>
       </c>
@@ -3418,7 +3418,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">3654000</t>
+            <t xml:space="preserve">4550000</t>
           </r>
         </is>
       </c>
@@ -3436,7 +3436,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">74</t>
+            <t xml:space="preserve">94</t>
           </r>
         </is>
       </c>
@@ -3447,7 +3447,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-12</t>
+            <t xml:space="preserve">2023-01-18</t>
           </r>
         </is>
       </c>
@@ -3465,7 +3465,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2975000</t>
+            <t xml:space="preserve">3469000</t>
           </r>
         </is>
       </c>
@@ -3483,7 +3483,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">434000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3510,7 +3510,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2541000</t>
+            <t xml:space="preserve">3469000</t>
           </r>
         </is>
       </c>
@@ -3528,7 +3528,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">59</t>
+            <t xml:space="preserve">51</t>
           </r>
         </is>
       </c>
@@ -3539,7 +3539,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-01-11</t>
+            <t xml:space="preserve">2023-01-17</t>
           </r>
         </is>
       </c>
@@ -3557,7 +3557,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2429000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -3575,7 +3575,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -3602,7 +3602,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2404000</t>
+            <t xml:space="preserve">200000</t>
           </r>
         </is>
       </c>
@@ -3620,942 +3620,22 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">49</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="39" customHeight="1" ht="20">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-10</t>
-          </r>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2910000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">60000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2850000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">61</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="40" customHeight="1" ht="20">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-09</t>
-          </r>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2155000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">15000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2140000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">42</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="41" customHeight="1" ht="20">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-08</t>
-          </r>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">4582000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">200000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">4382000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">82</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="42" customHeight="1" ht="20">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-07</t>
-          </r>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3345000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">415000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2930000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">71</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="43" customHeight="1" ht="20">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-06</t>
-          </r>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2934000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">50000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2884000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">59</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="44" customHeight="1" ht="20">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-05</t>
-          </r>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2768000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">300000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2468000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">57</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="45" customHeight="1" ht="20">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-04</t>
-          </r>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1700000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">45000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1655000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">40</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="46" customHeight="1" ht="20">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-03</t>
-          </r>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2302000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">305000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1997000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">50</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="47" customHeight="1" ht="20">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-02</t>
-          </r>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2040000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">655000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1385000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">40</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="48" customHeight="1" ht="20">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-01-01</t>
-          </r>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">TODOS</t>
-          </r>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2896000</t>
-          </r>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">110000</t>
-          </r>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2786000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">0</t>
-          </r>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">48</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="49" customHeight="1" ht="575">
-      <c r="A49" s="3" t="inlineStr"/>
-      <c r="B49" s="3" t="inlineStr"/>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
+            <t xml:space="preserve">4</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="575">
+      <c r="A39" s="3" t="inlineStr"/>
+      <c r="B39" s="3" t="inlineStr"/>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
